--- a/Java版计划图编辑内容.xlsx
+++ b/Java版计划图编辑内容.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22943" windowHeight="10955"/>
+    <workbookView windowWidth="19100" windowHeight="8620"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37">
   <si>
     <t>编号</t>
   </si>
@@ -37,25 +37,28 @@
     <t>101001</t>
   </si>
   <si>
-    <t>08:43:53</t>
+    <t>08:55:06</t>
+  </si>
+  <si>
+    <t>岳阳东</t>
+  </si>
+  <si>
+    <t>3G</t>
+  </si>
+  <si>
+    <t>接车</t>
+  </si>
+  <si>
+    <t>08:43:54</t>
   </si>
   <si>
     <t>赤壁北</t>
   </si>
   <si>
-    <t>3G</t>
+    <t>4G</t>
   </si>
   <si>
     <t>发车</t>
-  </si>
-  <si>
-    <t>08:55:06</t>
-  </si>
-  <si>
-    <t>岳阳东</t>
-  </si>
-  <si>
-    <t>接车</t>
   </si>
   <si>
     <t>09:23:53</t>
@@ -129,10 +132,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -150,6 +153,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -157,8 +161,46 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -172,95 +214,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -281,7 +247,44 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -302,181 +305,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -505,6 +508,41 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -516,15 +554,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -559,28 +588,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -593,15 +605,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -610,10 +613,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -622,133 +625,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1093,14 +1096,14 @@
   <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="3" width="11.25" style="1" customWidth="1"/>
-    <col min="4" max="6" width="10.3796296296296" style="1" customWidth="1"/>
+    <col min="4" max="6" width="10.3833333333333" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="23.25" customHeight="1" spans="1:6">
@@ -1125,7 +1128,7 @@
     </row>
     <row r="2" ht="18" customHeight="1" spans="1:6">
       <c r="A2" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>6</v>
@@ -1145,7 +1148,7 @@
     </row>
     <row r="3" ht="18" customHeight="1" spans="1:6">
       <c r="A3" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>6</v>
@@ -1157,10 +1160,10 @@
         <v>12</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1171,16 +1174,16 @@
         <v>6</v>
       </c>
       <c r="C4" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="5" t="s">
         <v>14</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1191,16 +1194,16 @@
         <v>6</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>9</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1211,16 +1214,16 @@
         <v>6</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>9</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1231,16 +1234,16 @@
         <v>6</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>9</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1251,16 +1254,16 @@
         <v>6</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>9</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1271,16 +1274,16 @@
         <v>6</v>
       </c>
       <c r="C9" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>23</v>
-      </c>
       <c r="E9" s="5" t="s">
         <v>9</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1291,16 +1294,16 @@
         <v>6</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>9</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1311,16 +1314,16 @@
         <v>6</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>9</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1328,19 +1331,19 @@
         <v>11</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>9</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1348,19 +1351,19 @@
         <v>12</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>9</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1368,19 +1371,19 @@
         <v>13</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>9</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1388,19 +1391,19 @@
         <v>14</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E15" s="5" t="s">
         <v>9</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1408,19 +1411,19 @@
         <v>15</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E16" s="5" t="s">
         <v>9</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1428,19 +1431,19 @@
         <v>16</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E17" s="5" t="s">
         <v>9</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1448,19 +1451,19 @@
         <v>17</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E18" s="5" t="s">
         <v>9</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1468,19 +1471,19 @@
         <v>18</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E19" s="5" t="s">
         <v>9</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1488,19 +1491,19 @@
         <v>19</v>
       </c>
       <c r="B20" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D20" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C20" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>28</v>
-      </c>
       <c r="E20" s="5" t="s">
         <v>9</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
